--- a/AccController/AccController.Web/Content/templates/import/result/ais/CapNhatPhongBanUser.xlsx
+++ b/AccController/AccController.Web/Content/templates/import/result/ais/CapNhatPhongBanUser.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\export\result\ais\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1380" yWindow="2025" windowWidth="15120" windowHeight="6375" tabRatio="754"/>
   </bookViews>
@@ -10,14 +15,14 @@
     <sheet name="CapNhatPhongBanUser" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">CapNhatPhongBanUser!$A$4:$D$4</definedName>
+    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">CapNhatPhongBanUser!$A$4:$K$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Mức ưu tiên</t>
   </si>
@@ -65,6 +70,18 @@
   </si>
   <si>
     <t>{Field:"OldRole"}</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>{Field:"Id"}</t>
+  </si>
+  <si>
+    <t>Kq</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -4160,12 +4177,14 @@
     <xf numFmtId="0" fontId="180" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1492">
     <cellStyle name="          _x000a__x000a_shell=progman.exe_x000a__x000a_m" xfId="97"/>
@@ -5717,7 +5736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5752,7 +5771,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5961,25 +5980,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H4"/>
+  <dimension ref="A3:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="8" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6004,8 +6023,17 @@
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6030,6 +6058,11 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AccController/AccController.Web/Content/templates/import/result/ais/CapNhatPhongBanUser.xlsx
+++ b/AccController/AccController.Web/Content/templates/import/result/ais/CapNhatPhongBanUser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\export\result\ais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\import\result\ais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Mức ưu tiên</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>{Field:"Result"}</t>
+  </si>
+  <si>
+    <t>{Field:"Description"}</t>
   </si>
 </sst>
 </file>
@@ -5983,7 +5989,7 @@
   <dimension ref="A3:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6058,8 +6064,12 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
